--- a/Registers/Registro.xlsx
+++ b/Registers/Registro.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tausand\TausandBill\Registers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Factura</t>
   </si>
@@ -44,52 +49,16 @@
   </si>
   <si>
     <t>Observaciones</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2018-06-16 19:58:00</t>
-  </si>
-  <si>
-    <t>2018-06-16 18:49:00</t>
-  </si>
-  <si>
-    <t>Juan Barbosa</t>
-  </si>
-  <si>
-    <t>1015457552</t>
-  </si>
-  <si>
-    <t>Calle 126 # 52 a 92 apto 101</t>
-  </si>
-  <si>
-    <t>Bogotá</t>
-  </si>
-  <si>
-    <t>6135083</t>
-  </si>
-  <si>
-    <t>js.barbosa10@uniandes.edu.co</t>
-  </si>
-  <si>
-    <t>119,000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy hh:mm"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy\ hh:mm"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +122,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -199,7 +176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,9 +208,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,6 +260,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -440,14 +453,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,92 +501,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2">
-        <v>43267.83263888889</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Registers/Registro.xlsx
+++ b/Registers/Registro.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tausand\TausandBill\Registers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rutherford\Documents\TausandBill\Registers\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA98055-3D0F-47D0-B046-37EDF82342CD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Factura</t>
   </si>
@@ -49,15 +50,36 @@
   </si>
   <si>
     <t>Observaciones</t>
+  </si>
+  <si>
+    <t>2018-07-04 11:58:00</t>
+  </si>
+  <si>
+    <t>Juan Barbosa</t>
+  </si>
+  <si>
+    <t>1015457552</t>
+  </si>
+  <si>
+    <t>Calle 126 # 52 a 92 apto 101</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t>6135083</t>
+  </si>
+  <si>
+    <t>js.barbosa10@uniandes.edu.co</t>
+  </si>
+  <si>
+    <t>119,000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy\ hh:mm"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,12 +132,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,21 +474,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -502,7 +516,33 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Registers/Registro.xlsx
+++ b/Registers/Registro.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rutherford\Documents\TausandBill\Registers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tausand\TausandBill\Registers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA98055-3D0F-47D0-B046-37EDF82342CD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551D53F8-8E6C-425F-A18E-172313C89E12}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Factura</t>
   </si>
@@ -50,30 +50,6 @@
   </si>
   <si>
     <t>Observaciones</t>
-  </si>
-  <si>
-    <t>2018-07-04 11:58:00</t>
-  </si>
-  <si>
-    <t>Juan Barbosa</t>
-  </si>
-  <si>
-    <t>1015457552</t>
-  </si>
-  <si>
-    <t>Calle 126 # 52 a 92 apto 101</t>
-  </si>
-  <si>
-    <t>Bogotá</t>
-  </si>
-  <si>
-    <t>6135083</t>
-  </si>
-  <si>
-    <t>js.barbosa10@uniandes.edu.co</t>
-  </si>
-  <si>
-    <t>119,000</t>
   </si>
 </sst>
 </file>
@@ -475,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,35 +491,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Registers/Registro.xlsx
+++ b/Registers/Registro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tausand\TausandBill\Registers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551D53F8-8E6C-425F-A18E-172313C89E12}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665A2487-3CC1-4A4E-AD27-E758D341869A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Registers/Registro.xlsx
+++ b/Registers/Registro.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tausand\TausandBill\Registers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665A2487-3CC1-4A4E-AD27-E758D341869A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Factura</t>
   </si>
@@ -50,13 +44,46 @@
   </si>
   <si>
     <t>Observaciones</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>2018-07-05 16:42:00</t>
+  </si>
+  <si>
+    <t>Juan Barbosa</t>
+  </si>
+  <si>
+    <t>1015457552</t>
+  </si>
+  <si>
+    <t>Calle 126 # 52 a 92 apto 101</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t>6135083</t>
+  </si>
+  <si>
+    <t>js.barbosa10@uniandes.edu.co</t>
+  </si>
+  <si>
+    <t>1,900,100,000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy hh:mm"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,25 +135,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -173,7 +193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,27 +225,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,24 +259,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,16 +434,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,6 +471,64 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43286.69722222222</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Registers/Registro.xlsx
+++ b/Registers/Registro.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tausand\TausandBill\Registers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569D5C54-6708-4374-8FD3-CA5A2F41CADB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Factura</t>
   </si>
@@ -44,46 +50,13 @@
   </si>
   <si>
     <t>Observaciones</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>2018-07-05 16:42:00</t>
-  </si>
-  <si>
-    <t>Juan Barbosa</t>
-  </si>
-  <si>
-    <t>1015457552</t>
-  </si>
-  <si>
-    <t>Calle 126 # 52 a 92 apto 101</t>
-  </si>
-  <si>
-    <t>Bogotá</t>
-  </si>
-  <si>
-    <t>6135083</t>
-  </si>
-  <si>
-    <t>js.barbosa10@uniandes.edu.co</t>
-  </si>
-  <si>
-    <t>1,900,100,000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy hh:mm"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,18 +108,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -193,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,9 +205,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,6 +257,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -434,14 +450,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,64 +489,6 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43286.69722222222</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Registers/Registro.xlsx
+++ b/Registers/Registro.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tausand\TausandBill\Registers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569D5C54-6708-4374-8FD3-CA5A2F41CADB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Factura</t>
   </si>
@@ -50,13 +44,49 @@
   </si>
   <si>
     <t>Observaciones</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>2018-07-09 12:22:00</t>
+  </si>
+  <si>
+    <t>Juan Barbosa</t>
+  </si>
+  <si>
+    <t>1015457552</t>
+  </si>
+  <si>
+    <t>Calle 126 # 52 a 92 apto 101</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t>6135083</t>
+  </si>
+  <si>
+    <t>js.barbosa10@uniandes.edu.co</t>
+  </si>
+  <si>
+    <t>128,999</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy hh:mm"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,25 +138,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -173,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,27 +228,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,24 +262,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,16 +437,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,6 +474,70 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43290.51597222222</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Registers/Registro.xlsx
+++ b/Registers/Registro.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tausand\TausandBill\Registers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A607D5FA-7E30-4B0A-A5A4-5A56314E29C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Factura</t>
   </si>
@@ -44,49 +50,13 @@
   </si>
   <si>
     <t>Observaciones</t>
-  </si>
-  <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>2018-07-09 12:22:00</t>
-  </si>
-  <si>
-    <t>Juan Barbosa</t>
-  </si>
-  <si>
-    <t>1015457552</t>
-  </si>
-  <si>
-    <t>Calle 126 # 52 a 92 apto 101</t>
-  </si>
-  <si>
-    <t>Bogotá</t>
-  </si>
-  <si>
-    <t>6135083</t>
-  </si>
-  <si>
-    <t>js.barbosa10@uniandes.edu.co</t>
-  </si>
-  <si>
-    <t>128,999</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy hh:mm"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,18 +108,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -196,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,9 +205,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,6 +257,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,14 +450,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,70 +489,6 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2">
-        <v>43290.51597222222</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Registers/Registro.xlsx
+++ b/Registers/Registro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tausand\TausandBill\Registers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A607D5FA-7E30-4B0A-A5A4-5A56314E29C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA62CDC5-45FE-4E8D-864F-2CD144A332CF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
